--- a/MailMerge.xlsx
+++ b/MailMerge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>OSC Code</t>
   </si>
@@ -47,6 +47,183 @@
   </si>
   <si>
     <t>Reward</t>
+  </si>
+  <si>
+    <t>2235</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>2422</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>6223</t>
+  </si>
+  <si>
+    <t>2119</t>
+  </si>
+  <si>
+    <t>5045</t>
+  </si>
+  <si>
+    <t>5064</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>5343</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>6246</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>2127</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>2349</t>
+  </si>
+  <si>
+    <t>6213</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>2392</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>6224</t>
+  </si>
+  <si>
+    <t>2286</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2365</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>2363</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>6249</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>2297</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>6222</t>
+  </si>
+  <si>
+    <t>6245</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>2423</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>2362</t>
   </si>
 </sst>
 </file>
@@ -382,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,6 +602,301 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/MailMerge.xlsx
+++ b/MailMerge.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mail Merge" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="948">
   <si>
     <t>OSC Code</t>
   </si>
   <si>
-    <t>OSC Name</t>
+    <t>DBA</t>
   </si>
   <si>
     <t>Contact First Name</t>
@@ -52,178 +52,2812 @@
     <t>2235</t>
   </si>
   <si>
+    <t>FRANK BOUCHER SAAB</t>
+  </si>
+  <si>
+    <t>Aerox</t>
+  </si>
+  <si>
+    <t>$121006</t>
+  </si>
+  <si>
+    <t>$73922</t>
+  </si>
+  <si>
+    <t>$47084</t>
+  </si>
+  <si>
+    <t>$300</t>
+  </si>
+  <si>
+    <t>2385</t>
+  </si>
+  <si>
+    <t>VIKING AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>$55508</t>
+  </si>
+  <si>
+    <t>$84149</t>
+  </si>
+  <si>
+    <t>$-28641</t>
+  </si>
+  <si>
     <t>2055</t>
   </si>
   <si>
+    <t>SAAB OF TROY</t>
+  </si>
+  <si>
+    <t>Aero</t>
+  </si>
+  <si>
+    <t>$31301</t>
+  </si>
+  <si>
+    <t>$29231</t>
+  </si>
+  <si>
+    <t>$2070</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>HERITAGE SAAB</t>
+  </si>
+  <si>
+    <t>$29805</t>
+  </si>
+  <si>
+    <t>$19659</t>
+  </si>
+  <si>
+    <t>$10146</t>
+  </si>
+  <si>
     <t>1337</t>
   </si>
   <si>
+    <t>SCHMELZ COUNTRYSIDE SAAB</t>
+  </si>
+  <si>
+    <t>$22079</t>
+  </si>
+  <si>
+    <t>$22145</t>
+  </si>
+  <si>
+    <t>$-65</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>FOX SAAB</t>
+  </si>
+  <si>
+    <t>$20751</t>
+  </si>
+  <si>
+    <t>$31300</t>
+  </si>
+  <si>
+    <t>$-10549</t>
+  </si>
+  <si>
     <t>1875</t>
   </si>
   <si>
+    <t>GARRY SMALL SAAB</t>
+  </si>
+  <si>
+    <t>$20597</t>
+  </si>
+  <si>
+    <t>$26315</t>
+  </si>
+  <si>
+    <t>$-5718</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>JIM ELLIS SAAB OF ATLANTA</t>
+  </si>
+  <si>
+    <t>$19715</t>
+  </si>
+  <si>
+    <t>$31639</t>
+  </si>
+  <si>
+    <t>$-11924</t>
+  </si>
+  <si>
     <t>1706</t>
   </si>
   <si>
+    <t>PATRICK SAAB</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>$18855</t>
+  </si>
+  <si>
+    <t>$22701</t>
+  </si>
+  <si>
+    <t>$-3846</t>
+  </si>
+  <si>
+    <t>$200</t>
+  </si>
+  <si>
+    <t>2321</t>
+  </si>
+  <si>
+    <t>SAAB OF BEVERLY HILLS</t>
+  </si>
+  <si>
+    <t>$17078</t>
+  </si>
+  <si>
+    <t>$4341</t>
+  </si>
+  <si>
+    <t>$12737</t>
+  </si>
+  <si>
     <t>2422</t>
   </si>
   <si>
+    <t>MORRIE'S CADILLAC</t>
+  </si>
+  <si>
+    <t>$16603</t>
+  </si>
+  <si>
+    <t>$17911</t>
+  </si>
+  <si>
+    <t>$-1308</t>
+  </si>
+  <si>
+    <t>2381</t>
+  </si>
+  <si>
+    <t>SCANWEST AUTOSPORT</t>
+  </si>
+  <si>
+    <t>$15274</t>
+  </si>
+  <si>
+    <t>$24014</t>
+  </si>
+  <si>
+    <t>$-8740</t>
+  </si>
+  <si>
     <t>2352</t>
   </si>
   <si>
+    <t>GWATNEY SAAB OF MEMPHIS,</t>
+  </si>
+  <si>
+    <t>$15165</t>
+  </si>
+  <si>
+    <t>$11711</t>
+  </si>
+  <si>
+    <t>$3454</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>DANA SAAB</t>
+  </si>
+  <si>
+    <t>$14866</t>
+  </si>
+  <si>
+    <t>$12449</t>
+  </si>
+  <si>
+    <t>$2417</t>
+  </si>
+  <si>
     <t>6223</t>
   </si>
   <si>
+    <t>BUDD'S SAAB</t>
+  </si>
+  <si>
+    <t>$14207</t>
+  </si>
+  <si>
+    <t>$12077</t>
+  </si>
+  <si>
+    <t>$2130</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>SAAB OF BELLEVUE</t>
+  </si>
+  <si>
+    <t>$13833</t>
+  </si>
+  <si>
+    <t>$18049</t>
+  </si>
+  <si>
+    <t>$-4216</t>
+  </si>
+  <si>
     <t>2119</t>
   </si>
   <si>
+    <t>SAAB OF BEDFORD</t>
+  </si>
+  <si>
+    <t>$13600</t>
+  </si>
+  <si>
+    <t>$18612</t>
+  </si>
+  <si>
+    <t>$-5012</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>FALCONE SAAB</t>
+  </si>
+  <si>
+    <t>$13427</t>
+  </si>
+  <si>
+    <t>$16325</t>
+  </si>
+  <si>
+    <t>$-2898</t>
+  </si>
+  <si>
     <t>5045</t>
   </si>
   <si>
+    <t>SWEDISH IMPORTS</t>
+  </si>
+  <si>
+    <t>$12634</t>
+  </si>
+  <si>
+    <t>$10393</t>
+  </si>
+  <si>
+    <t>$2242</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>SAAB OF CHARLOTTE</t>
+  </si>
+  <si>
+    <t>$11148</t>
+  </si>
+  <si>
+    <t>$22040</t>
+  </si>
+  <si>
+    <t>$-10893</t>
+  </si>
+  <si>
     <t>5064</t>
   </si>
   <si>
+    <t>GEORGE'S IMPORTS, LTD</t>
+  </si>
+  <si>
+    <t>$11031</t>
+  </si>
+  <si>
+    <t>$12749</t>
+  </si>
+  <si>
+    <t>$-1718</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>JUST SAAB</t>
+  </si>
+  <si>
+    <t>$10725</t>
+  </si>
+  <si>
+    <t>$23256</t>
+  </si>
+  <si>
+    <t>$-12531</t>
+  </si>
+  <si>
     <t>2116</t>
   </si>
   <si>
+    <t>FLIKKEMA SAAB</t>
+  </si>
+  <si>
+    <t>$10616</t>
+  </si>
+  <si>
+    <t>$13759</t>
+  </si>
+  <si>
+    <t>$-3143</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>SAAB OF TAMPA</t>
+  </si>
+  <si>
+    <t>$10512</t>
+  </si>
+  <si>
+    <t>$13426</t>
+  </si>
+  <si>
+    <t>$-2914</t>
+  </si>
+  <si>
     <t>5343</t>
   </si>
   <si>
+    <t>JIM ELLIS SAAB OF MARIETTA</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>$10487</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>MILE HI BODY SHOP, INC</t>
+  </si>
+  <si>
+    <t>$10478</t>
+  </si>
+  <si>
+    <t>$17832</t>
+  </si>
+  <si>
+    <t>$-7354</t>
+  </si>
+  <si>
     <t>1993</t>
   </si>
   <si>
+    <t>ARMANDO'S SAAB</t>
+  </si>
+  <si>
+    <t>$9977</t>
+  </si>
+  <si>
+    <t>$9667</t>
+  </si>
+  <si>
+    <t>$310</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>ZIMBRICK INC</t>
+  </si>
+  <si>
+    <t>$9705</t>
+  </si>
+  <si>
+    <t>$11764</t>
+  </si>
+  <si>
+    <t>$-2058</t>
+  </si>
+  <si>
     <t>2080</t>
   </si>
   <si>
+    <t>MIDWESTERN AUTO GROUP</t>
+  </si>
+  <si>
+    <t>$9361</t>
+  </si>
+  <si>
+    <t>$10716</t>
+  </si>
+  <si>
+    <t>$-1355</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>HENDRICK CADILLAC-SAAB-SPY</t>
+  </si>
+  <si>
+    <t>$9218</t>
+  </si>
+  <si>
+    <t>$6974</t>
+  </si>
+  <si>
+    <t>$2244</t>
+  </si>
+  <si>
     <t>1857</t>
   </si>
   <si>
+    <t>BROADWAY SAAB</t>
+  </si>
+  <si>
+    <t>$8863</t>
+  </si>
+  <si>
+    <t>$6761</t>
+  </si>
+  <si>
+    <t>$2102</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>B &amp; B SAAB</t>
+  </si>
+  <si>
+    <t>$8828</t>
+  </si>
+  <si>
+    <t>$20658</t>
+  </si>
+  <si>
+    <t>$-11830</t>
+  </si>
+  <si>
     <t>2151</t>
   </si>
   <si>
+    <t>SEWELL SAAB OF DALLAS</t>
+  </si>
+  <si>
+    <t>$8554</t>
+  </si>
+  <si>
+    <t>$15191</t>
+  </si>
+  <si>
+    <t>$-6637</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>GLASSMAN SAAB</t>
+  </si>
+  <si>
+    <t>$8117</t>
+  </si>
+  <si>
+    <t>$16288</t>
+  </si>
+  <si>
+    <t>$-8171</t>
+  </si>
+  <si>
     <t>2415</t>
   </si>
   <si>
+    <t>BOYD'S AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>$8062</t>
+  </si>
+  <si>
+    <t>$9046</t>
+  </si>
+  <si>
+    <t>$-984</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>MARVIN K. BROWN SAAB</t>
+  </si>
+  <si>
+    <t>$7723</t>
+  </si>
+  <si>
+    <t>$21140</t>
+  </si>
+  <si>
+    <t>$-13417</t>
+  </si>
+  <si>
     <t>1727</t>
   </si>
   <si>
+    <t>BLUE GRASS SAAB</t>
+  </si>
+  <si>
+    <t>$7714</t>
+  </si>
+  <si>
+    <t>$8725</t>
+  </si>
+  <si>
+    <t>$-1010</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>SAAB EXCHANGE</t>
+  </si>
+  <si>
+    <t>$7670</t>
+  </si>
+  <si>
+    <t>$14191</t>
+  </si>
+  <si>
+    <t>$-6521</t>
+  </si>
+  <si>
     <t>2280</t>
   </si>
   <si>
+    <t>SUBURBAN SAAB</t>
+  </si>
+  <si>
+    <t>$7469</t>
+  </si>
+  <si>
+    <t>$6315</t>
+  </si>
+  <si>
+    <t>$1154</t>
+  </si>
+  <si>
+    <t>2167</t>
+  </si>
+  <si>
+    <t>SAAB OF SHERMAN OAKS</t>
+  </si>
+  <si>
+    <t>$7357</t>
+  </si>
+  <si>
+    <t>$21769</t>
+  </si>
+  <si>
+    <t>$-14412</t>
+  </si>
+  <si>
     <t>6246</t>
   </si>
   <si>
+    <t>LANGLEY FIAT</t>
+  </si>
+  <si>
+    <t>$7206</t>
+  </si>
+  <si>
+    <t>$8350</t>
+  </si>
+  <si>
+    <t>$-1144</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>SMART MOTORS</t>
+  </si>
+  <si>
+    <t>$7104</t>
+  </si>
+  <si>
+    <t>$9605</t>
+  </si>
+  <si>
+    <t>$-2501</t>
+  </si>
+  <si>
     <t>1807</t>
   </si>
   <si>
+    <t>WEST COUNTY SAAB</t>
+  </si>
+  <si>
+    <t>$6841</t>
+  </si>
+  <si>
+    <t>$8791</t>
+  </si>
+  <si>
+    <t>$-1951</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>TRIO MOTORS INC</t>
+  </si>
+  <si>
+    <t>$6427</t>
+  </si>
+  <si>
+    <t>$8095</t>
+  </si>
+  <si>
+    <t>$-1667</t>
+  </si>
+  <si>
     <t>2409</t>
   </si>
   <si>
+    <t>FRENCH'S FOREIGN CAR SERVI</t>
+  </si>
+  <si>
+    <t>$6330</t>
+  </si>
+  <si>
+    <t>$21297</t>
+  </si>
+  <si>
+    <t>$-14967</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>EURO TECH COLORADO</t>
+  </si>
+  <si>
+    <t>$6289</t>
+  </si>
+  <si>
+    <t>$9193</t>
+  </si>
+  <si>
+    <t>$-2904</t>
+  </si>
+  <si>
     <t>2115</t>
   </si>
   <si>
+    <t>ROGER BEASLEY SAAB</t>
+  </si>
+  <si>
+    <t>$6232</t>
+  </si>
+  <si>
+    <t>$9864</t>
+  </si>
+  <si>
+    <t>$-3632</t>
+  </si>
+  <si>
+    <t>2394</t>
+  </si>
+  <si>
+    <t>VIGGEN AUTOMOTIVE PERFOR</t>
+  </si>
+  <si>
+    <t>$6118</t>
+  </si>
+  <si>
+    <t>$16438</t>
+  </si>
+  <si>
+    <t>$-10320</t>
+  </si>
+  <si>
     <t>2350</t>
   </si>
   <si>
+    <t>USI MOTORS SAAB OF KNOXVI</t>
+  </si>
+  <si>
+    <t>$6078</t>
+  </si>
+  <si>
+    <t>$-2476</t>
+  </si>
+  <si>
+    <t>5352</t>
+  </si>
+  <si>
+    <t>TUSTIN NISSAN, INC.</t>
+  </si>
+  <si>
+    <t>$6057</t>
+  </si>
+  <si>
+    <t>$17723</t>
+  </si>
+  <si>
+    <t>$-11667</t>
+  </si>
+  <si>
     <t>2127</t>
   </si>
   <si>
+    <t>SCHUMACHER SAAB</t>
+  </si>
+  <si>
+    <t>$6014</t>
+  </si>
+  <si>
+    <t>$7298</t>
+  </si>
+  <si>
+    <t>$-1284</t>
+  </si>
+  <si>
+    <t>2371</t>
+  </si>
+  <si>
+    <t>THE SWEDISH MECHANIC</t>
+  </si>
+  <si>
+    <t>$5991</t>
+  </si>
+  <si>
+    <t>$8739</t>
+  </si>
+  <si>
+    <t>$-2748</t>
+  </si>
+  <si>
     <t>2373</t>
   </si>
   <si>
+    <t>FIELDS CADILLAC JACKSONVILL</t>
+  </si>
+  <si>
+    <t>$5986</t>
+  </si>
+  <si>
+    <t>$9686</t>
+  </si>
+  <si>
+    <t>$-3701</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>RED NOLAND SAAB</t>
+  </si>
+  <si>
+    <t>$5779</t>
+  </si>
+  <si>
+    <t>$6535</t>
+  </si>
+  <si>
+    <t>$-756</t>
+  </si>
+  <si>
     <t>2382</t>
   </si>
   <si>
+    <t>SWEDE CENTRAL</t>
+  </si>
+  <si>
+    <t>$5741</t>
+  </si>
+  <si>
+    <t>$14523</t>
+  </si>
+  <si>
+    <t>$-8782</t>
+  </si>
+  <si>
+    <t>2387</t>
+  </si>
+  <si>
+    <t>KG AUTO WERKS</t>
+  </si>
+  <si>
+    <t>$5695</t>
+  </si>
+  <si>
+    <t>$6711</t>
+  </si>
+  <si>
+    <t>$-1016</t>
+  </si>
+  <si>
     <t>2090</t>
   </si>
   <si>
+    <t>DIRITO BROS. WALNUT CREEK</t>
+  </si>
+  <si>
+    <t>$5258</t>
+  </si>
+  <si>
+    <t>$10975</t>
+  </si>
+  <si>
+    <t>$-5717</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>MEYER GARAGE</t>
+  </si>
+  <si>
+    <t>$5023</t>
+  </si>
+  <si>
+    <t>$6347</t>
+  </si>
+  <si>
+    <t>$-1324</t>
+  </si>
+  <si>
     <t>2349</t>
   </si>
   <si>
+    <t>LARSON CADILLAC SAAB</t>
+  </si>
+  <si>
+    <t>$4759</t>
+  </si>
+  <si>
+    <t>$6678</t>
+  </si>
+  <si>
+    <t>$-1919</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>EOS MOTORSPORTS</t>
+  </si>
+  <si>
+    <t>$4734</t>
+  </si>
+  <si>
+    <t>$9501</t>
+  </si>
+  <si>
+    <t>$-4766</t>
+  </si>
+  <si>
     <t>6213</t>
   </si>
   <si>
+    <t>GRAVEL CHEV BUICK CADILLAC</t>
+  </si>
+  <si>
+    <t>$4635</t>
+  </si>
+  <si>
+    <t>$4283</t>
+  </si>
+  <si>
+    <t>$351</t>
+  </si>
+  <si>
+    <t>2395</t>
+  </si>
+  <si>
+    <t>BECKLEY AUTOMOTIVE SERVIC</t>
+  </si>
+  <si>
+    <t>$4627</t>
+  </si>
+  <si>
+    <t>$5379</t>
+  </si>
+  <si>
+    <t>$-752</t>
+  </si>
+  <si>
     <t>2137</t>
   </si>
   <si>
+    <t>DAVE TOWELL SAAB</t>
+  </si>
+  <si>
+    <t>$4623</t>
+  </si>
+  <si>
+    <t>$8333</t>
+  </si>
+  <si>
+    <t>$-3710</t>
+  </si>
+  <si>
+    <t>2384</t>
+  </si>
+  <si>
+    <t>THE SAAB SHOP</t>
+  </si>
+  <si>
+    <t>$4601</t>
+  </si>
+  <si>
+    <t>$9957</t>
+  </si>
+  <si>
+    <t>$-5356</t>
+  </si>
+  <si>
     <t>2392</t>
   </si>
   <si>
+    <t>TALIAFERRO IMPORTS, INC.</t>
+  </si>
+  <si>
+    <t>$4515</t>
+  </si>
+  <si>
+    <t>$6554</t>
+  </si>
+  <si>
+    <t>$-2039</t>
+  </si>
+  <si>
+    <t>2425</t>
+  </si>
+  <si>
+    <t>O'REILLY MOTOR CARS</t>
+  </si>
+  <si>
+    <t>$4500</t>
+  </si>
+  <si>
+    <t>$4794</t>
+  </si>
+  <si>
+    <t>$-295</t>
+  </si>
+  <si>
     <t>1988</t>
   </si>
   <si>
+    <t>TOM KELLEY SAAB</t>
+  </si>
+  <si>
+    <t>$4488</t>
+  </si>
+  <si>
+    <t>$3553</t>
+  </si>
+  <si>
+    <t>$935</t>
+  </si>
+  <si>
+    <t>6247</t>
+  </si>
+  <si>
+    <t>ROY FOSS MOTORS</t>
+  </si>
+  <si>
+    <t>$4483</t>
+  </si>
+  <si>
+    <t>$2501</t>
+  </si>
+  <si>
+    <t>$1982</t>
+  </si>
+  <si>
     <t>6224</t>
   </si>
   <si>
+    <t>SAAB / SUZUKI OF KITCHENER</t>
+  </si>
+  <si>
+    <t>$4413</t>
+  </si>
+  <si>
+    <t>$5200</t>
+  </si>
+  <si>
+    <t>$-787</t>
+  </si>
+  <si>
+    <t>6212</t>
+  </si>
+  <si>
+    <t>SAAB LAVAL</t>
+  </si>
+  <si>
+    <t>$4359</t>
+  </si>
+  <si>
+    <t>$5384</t>
+  </si>
+  <si>
+    <t>$-1025</t>
+  </si>
+  <si>
     <t>2286</t>
   </si>
   <si>
+    <t>CLASSIC CADILLAC-SAAB</t>
+  </si>
+  <si>
+    <t>$4342</t>
+  </si>
+  <si>
+    <t>$6653</t>
+  </si>
+  <si>
+    <t>$-2311</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>DAVE SMITH NISSAN OF SPOKA</t>
+  </si>
+  <si>
+    <t>$4285</t>
+  </si>
+  <si>
+    <t>$7863</t>
+  </si>
+  <si>
+    <t>$-3578</t>
+  </si>
+  <si>
     <t>2278</t>
   </si>
   <si>
+    <t>GERRY LANE SAAB</t>
+  </si>
+  <si>
+    <t>$4012</t>
+  </si>
+  <si>
+    <t>$3222</t>
+  </si>
+  <si>
+    <t>$790</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>ARROWHEAD CADILLAC</t>
+  </si>
+  <si>
+    <t>$3656</t>
+  </si>
+  <si>
+    <t>$2509</t>
+  </si>
+  <si>
+    <t>$1147</t>
+  </si>
+  <si>
     <t>2397</t>
   </si>
   <si>
+    <t>SAAB PARTS NORTHWEST</t>
+  </si>
+  <si>
+    <t>$3631</t>
+  </si>
+  <si>
+    <t>$1893</t>
+  </si>
+  <si>
+    <t>$1738</t>
+  </si>
+  <si>
+    <t>6233</t>
+  </si>
+  <si>
+    <t>SAAB OF EDMONTON</t>
+  </si>
+  <si>
+    <t>$3525</t>
+  </si>
+  <si>
+    <t>$1807</t>
+  </si>
+  <si>
+    <t>$1717</t>
+  </si>
+  <si>
     <t>2365</t>
   </si>
   <si>
+    <t>EARNHARDT CADILLAC</t>
+  </si>
+  <si>
+    <t>$3492</t>
+  </si>
+  <si>
+    <t>$3320</t>
+  </si>
+  <si>
+    <t>$171</t>
+  </si>
+  <si>
+    <t>2367</t>
+  </si>
+  <si>
+    <t>DESERT CADILLAC</t>
+  </si>
+  <si>
+    <t>$3476</t>
+  </si>
+  <si>
+    <t>$1747</t>
+  </si>
+  <si>
+    <t>$1728</t>
+  </si>
+  <si>
     <t>2218</t>
   </si>
   <si>
+    <t>QUANTRELL SAAB</t>
+  </si>
+  <si>
+    <t>$3462</t>
+  </si>
+  <si>
+    <t>$2541</t>
+  </si>
+  <si>
+    <t>$921</t>
+  </si>
+  <si>
+    <t>2368</t>
+  </si>
+  <si>
+    <t>TOM'S TRUCK CENTER</t>
+  </si>
+  <si>
+    <t>$3422</t>
+  </si>
+  <si>
+    <t>$1150</t>
+  </si>
+  <si>
+    <t>$2272</t>
+  </si>
+  <si>
     <t>2213</t>
   </si>
   <si>
+    <t>EURO-TECH SAAB</t>
+  </si>
+  <si>
+    <t>$3419</t>
+  </si>
+  <si>
+    <t>$5091</t>
+  </si>
+  <si>
+    <t>$-1672</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>SAAB HAWAII</t>
+  </si>
+  <si>
+    <t>$3261</t>
+  </si>
+  <si>
+    <t>$1132</t>
+  </si>
+  <si>
+    <t>$2128</t>
+  </si>
+  <si>
     <t>2293</t>
   </si>
   <si>
+    <t>SITTON BUICK PONTIAC GMC S</t>
+  </si>
+  <si>
+    <t>$3227</t>
+  </si>
+  <si>
+    <t>$5492</t>
+  </si>
+  <si>
+    <t>$-2266</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>DEVOE SAAB</t>
+  </si>
+  <si>
+    <t>$3226</t>
+  </si>
+  <si>
+    <t>$13655</t>
+  </si>
+  <si>
+    <t>$-10429</t>
+  </si>
+  <si>
     <t>2363</t>
   </si>
   <si>
+    <t>NAPLETON'S HYUNDAI OF AUR</t>
+  </si>
+  <si>
+    <t>$3138</t>
+  </si>
+  <si>
+    <t>$1422</t>
+  </si>
+  <si>
+    <t>$1716</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>SAAB OF WILMINGTON</t>
+  </si>
+  <si>
+    <t>$2888</t>
+  </si>
+  <si>
+    <t>$12359</t>
+  </si>
+  <si>
+    <t>$-9471</t>
+  </si>
+  <si>
     <t>2406</t>
   </si>
   <si>
+    <t>T. SCANDIA MOTORS</t>
+  </si>
+  <si>
+    <t>$2650</t>
+  </si>
+  <si>
+    <t>$3451</t>
+  </si>
+  <si>
+    <t>$-801</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>SHEEHAN SAAB</t>
+  </si>
+  <si>
+    <t>$2585</t>
+  </si>
+  <si>
+    <t>$19458</t>
+  </si>
+  <si>
+    <t>$-16872</t>
+  </si>
+  <si>
     <t>6249</t>
   </si>
   <si>
+    <t>HONDA CHARLESBOURG</t>
+  </si>
+  <si>
+    <t>$2564</t>
+  </si>
+  <si>
+    <t>$10228</t>
+  </si>
+  <si>
+    <t>$-7664</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>FLOW SAAB OF WINSTON-SALE</t>
+  </si>
+  <si>
+    <t>$2562</t>
+  </si>
+  <si>
+    <t>$3366</t>
+  </si>
+  <si>
+    <t>$-803</t>
+  </si>
+  <si>
     <t>2190</t>
   </si>
   <si>
+    <t>JESSUP SAAB</t>
+  </si>
+  <si>
+    <t>$2486</t>
+  </si>
+  <si>
+    <t>$4346</t>
+  </si>
+  <si>
+    <t>$-1860</t>
+  </si>
+  <si>
+    <t>2426</t>
+  </si>
+  <si>
+    <t>PATTERSON PERFORMANCE, IN</t>
+  </si>
+  <si>
+    <t>$2456</t>
+  </si>
+  <si>
+    <t>$4827</t>
+  </si>
+  <si>
+    <t>$-2372</t>
+  </si>
+  <si>
     <t>2087</t>
   </si>
   <si>
+    <t>PERILLO SAAB</t>
+  </si>
+  <si>
+    <t>$2414</t>
+  </si>
+  <si>
+    <t>$4586</t>
+  </si>
+  <si>
+    <t>$-2172</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>UFTRING SAAB</t>
+  </si>
+  <si>
+    <t>$2223</t>
+  </si>
+  <si>
+    <t>$2709</t>
+  </si>
+  <si>
+    <t>$-486</t>
+  </si>
+  <si>
     <t>2297</t>
   </si>
   <si>
+    <t>JACK SCHMITT CADILLAC-SAAB</t>
+  </si>
+  <si>
+    <t>$2030</t>
+  </si>
+  <si>
+    <t>$1176</t>
+  </si>
+  <si>
+    <t>$855</t>
+  </si>
+  <si>
+    <t>6225</t>
+  </si>
+  <si>
+    <t>ULTIMATE AUTOMOBILES</t>
+  </si>
+  <si>
+    <t>$1932</t>
+  </si>
+  <si>
+    <t>$3609</t>
+  </si>
+  <si>
+    <t>$-1677</t>
+  </si>
+  <si>
     <t>2389</t>
   </si>
   <si>
+    <t>SVENSSON AUTOMOTIVE INC.</t>
+  </si>
+  <si>
+    <t>$1895</t>
+  </si>
+  <si>
+    <t>$9427</t>
+  </si>
+  <si>
+    <t>$-7533</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>ED SCHMIDT SAAB</t>
+  </si>
+  <si>
+    <t>$1834</t>
+  </si>
+  <si>
+    <t>$1850</t>
+  </si>
+  <si>
+    <t>$-16</t>
+  </si>
+  <si>
     <t>6222</t>
   </si>
   <si>
+    <t>SAAB ON THE QUEENSWAY</t>
+  </si>
+  <si>
+    <t>$1826</t>
+  </si>
+  <si>
+    <t>$4663</t>
+  </si>
+  <si>
+    <t>$-2837</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>KELLY SAAB</t>
+  </si>
+  <si>
+    <t>$1697</t>
+  </si>
+  <si>
+    <t>$10484</t>
+  </si>
+  <si>
+    <t>$-8788</t>
+  </si>
+  <si>
     <t>6245</t>
   </si>
   <si>
+    <t>TURPIN SERVICE CENTER</t>
+  </si>
+  <si>
+    <t>$1627</t>
+  </si>
+  <si>
+    <t>$4513</t>
+  </si>
+  <si>
+    <t>$-2887</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>GRAHAM AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>$1624</t>
+  </si>
+  <si>
+    <t>$1824</t>
+  </si>
+  <si>
+    <t>$-200</t>
+  </si>
+  <si>
     <t>2399</t>
   </si>
   <si>
+    <t>BUNNIN CHEVROLET CADILLAC</t>
+  </si>
+  <si>
+    <t>$1526</t>
+  </si>
+  <si>
+    <t>$3410</t>
+  </si>
+  <si>
+    <t>$-1884</t>
+  </si>
+  <si>
+    <t>2372</t>
+  </si>
+  <si>
+    <t>SCANDINAVIAN SERVICE, INC.</t>
+  </si>
+  <si>
+    <t>$1446</t>
+  </si>
+  <si>
+    <t>$5279</t>
+  </si>
+  <si>
+    <t>$-3833</t>
+  </si>
+  <si>
     <t>2423</t>
   </si>
   <si>
+    <t>SWEDISH PERFORMANCE AND</t>
+  </si>
+  <si>
+    <t>$1265</t>
+  </si>
+  <si>
+    <t>$3434</t>
+  </si>
+  <si>
+    <t>$-2169</t>
+  </si>
+  <si>
+    <t>2427</t>
+  </si>
+  <si>
+    <t>BAY AREA SAAB</t>
+  </si>
+  <si>
+    <t>$1248</t>
+  </si>
+  <si>
+    <t>$1292</t>
+  </si>
+  <si>
+    <t>$-44</t>
+  </si>
+  <si>
     <t>2421</t>
   </si>
   <si>
+    <t>EUROPEAN MOTORS, LLC</t>
+  </si>
+  <si>
+    <t>$1092</t>
+  </si>
+  <si>
+    <t>$836</t>
+  </si>
+  <si>
+    <t>$256</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>THOMPSON SAAB OF SOUTHW</t>
+  </si>
+  <si>
+    <t>$1086</t>
+  </si>
+  <si>
+    <t>$1690</t>
+  </si>
+  <si>
+    <t>$-604</t>
+  </si>
+  <si>
     <t>2301</t>
   </si>
   <si>
+    <t>DON THORNTON CADILLAC SA</t>
+  </si>
+  <si>
+    <t>$973</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>SID DILLON BUICK - SAAB</t>
+  </si>
+  <si>
+    <t>$830</t>
+  </si>
+  <si>
+    <t>$1014</t>
+  </si>
+  <si>
+    <t>$-184</t>
+  </si>
+  <si>
     <t>2405</t>
   </si>
   <si>
+    <t>KEN BAKER ORIGINALS</t>
+  </si>
+  <si>
+    <t>$808</t>
+  </si>
+  <si>
+    <t>$7215</t>
+  </si>
+  <si>
+    <t>$-6407</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>KOCOUREK SAAB</t>
+  </si>
+  <si>
+    <t>$549</t>
+  </si>
+  <si>
     <t>2276</t>
   </si>
   <si>
+    <t>SCOGGIN-DICKEY SAAB</t>
+  </si>
+  <si>
+    <t>$334</t>
+  </si>
+  <si>
+    <t>$96</t>
+  </si>
+  <si>
+    <t>$238</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>EUROPEAN AUTO SERVICE</t>
+  </si>
+  <si>
+    <t>$216</t>
+  </si>
+  <si>
     <t>2144</t>
   </si>
   <si>
+    <t>FRED BEANS SAAB</t>
+  </si>
+  <si>
+    <t>$116496</t>
+  </si>
+  <si>
+    <t>$64590</t>
+  </si>
+  <si>
+    <t>$51906</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>CHARLES RIVER SAAB</t>
+  </si>
+  <si>
+    <t>$53801</t>
+  </si>
+  <si>
+    <t>$73334</t>
+  </si>
+  <si>
+    <t>$-19533</t>
+  </si>
+  <si>
     <t>2362</t>
+  </si>
+  <si>
+    <t>PARK AVENUE SAAB</t>
+  </si>
+  <si>
+    <t>$30738</t>
+  </si>
+  <si>
+    <t>$22337</t>
+  </si>
+  <si>
+    <t>$8401</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>MITCHELL PONTIAC INC</t>
+  </si>
+  <si>
+    <t>$27216</t>
+  </si>
+  <si>
+    <t>$41075</t>
+  </si>
+  <si>
+    <t>$-13859</t>
+  </si>
+  <si>
+    <t>2374</t>
+  </si>
+  <si>
+    <t>IM AUTOHAUS</t>
+  </si>
+  <si>
+    <t>$23471</t>
+  </si>
+  <si>
+    <t>$29418</t>
+  </si>
+  <si>
+    <t>$-5948</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>DELAWARE CADILLAC, OLDS, S</t>
+  </si>
+  <si>
+    <t>$17249</t>
+  </si>
+  <si>
+    <t>$14919</t>
+  </si>
+  <si>
+    <t>$2330</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>CONNTECH SAAB SPECIALISTS</t>
+  </si>
+  <si>
+    <t>$14762</t>
+  </si>
+  <si>
+    <t>$17419</t>
+  </si>
+  <si>
+    <t>$-2657</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>BMW OF SPRINGFIELD</t>
+  </si>
+  <si>
+    <t>$13578</t>
+  </si>
+  <si>
+    <t>$19034</t>
+  </si>
+  <si>
+    <t>$-5456</t>
+  </si>
+  <si>
+    <t>5350</t>
+  </si>
+  <si>
+    <t>SAAB OF MILFORD</t>
+  </si>
+  <si>
+    <t>$12503</t>
+  </si>
+  <si>
+    <t>$9865</t>
+  </si>
+  <si>
+    <t>$2639</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>CROSSWAY SAAB</t>
+  </si>
+  <si>
+    <t>$12431</t>
+  </si>
+  <si>
+    <t>$25133</t>
+  </si>
+  <si>
+    <t>$-12701</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>SCANDINAVIAN IMPORT SVC C</t>
+  </si>
+  <si>
+    <t>$12306</t>
+  </si>
+  <si>
+    <t>$17577</t>
+  </si>
+  <si>
+    <t>$-5271</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>DORSCHEL SAAB</t>
+  </si>
+  <si>
+    <t>$12209</t>
+  </si>
+  <si>
+    <t>$5423</t>
+  </si>
+  <si>
+    <t>$6787</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>VALENTI SAAB</t>
+  </si>
+  <si>
+    <t>$11942</t>
+  </si>
+  <si>
+    <t>$8272</t>
+  </si>
+  <si>
+    <t>$3670</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>TRACY BANKS SAAB</t>
+  </si>
+  <si>
+    <t>$11893</t>
+  </si>
+  <si>
+    <t>$13953</t>
+  </si>
+  <si>
+    <t>$-2060</t>
+  </si>
+  <si>
+    <t>2339</t>
+  </si>
+  <si>
+    <t>ANDERSON OF HUNT VALLEY</t>
+  </si>
+  <si>
+    <t>$10804</t>
+  </si>
+  <si>
+    <t>$10595</t>
+  </si>
+  <si>
+    <t>$209</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t>PORTLAND SAAB</t>
+  </si>
+  <si>
+    <t>$10773</t>
+  </si>
+  <si>
+    <t>$25267</t>
+  </si>
+  <si>
+    <t>$-14495</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>128 SALES INC</t>
+  </si>
+  <si>
+    <t>$10740</t>
+  </si>
+  <si>
+    <t>$8478</t>
+  </si>
+  <si>
+    <t>$2263</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>BREWER'S SAAB</t>
+  </si>
+  <si>
+    <t>$10448</t>
+  </si>
+  <si>
+    <t>$10497</t>
+  </si>
+  <si>
+    <t>$-49</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>VILLAGE SAAB</t>
+  </si>
+  <si>
+    <t>$10181</t>
+  </si>
+  <si>
+    <t>$22666</t>
+  </si>
+  <si>
+    <t>$-12484</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
+  <si>
+    <t>CADILLAC OF NORWOOD</t>
+  </si>
+  <si>
+    <t>$10131</t>
+  </si>
+  <si>
+    <t>$13190</t>
+  </si>
+  <si>
+    <t>$-3059</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>LONG CADILLAC</t>
+  </si>
+  <si>
+    <t>$9694</t>
+  </si>
+  <si>
+    <t>$17404</t>
+  </si>
+  <si>
+    <t>$-7710</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>SECOR'S AUTO CENTER INC</t>
+  </si>
+  <si>
+    <t>$9446</t>
+  </si>
+  <si>
+    <t>$8549</t>
+  </si>
+  <si>
+    <t>$897</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>PATRICK MOTORS INC</t>
+  </si>
+  <si>
+    <t>$9388</t>
+  </si>
+  <si>
+    <t>$18286</t>
+  </si>
+  <si>
+    <t>$-8898</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>$9041</t>
+  </si>
+  <si>
+    <t>$6404</t>
+  </si>
+  <si>
+    <t>$2637</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>P J'S AUTO VILLAGE</t>
+  </si>
+  <si>
+    <t>$8931</t>
+  </si>
+  <si>
+    <t>$19474</t>
+  </si>
+  <si>
+    <t>$-10543</t>
+  </si>
+  <si>
+    <t>2376</t>
+  </si>
+  <si>
+    <t>R.L SMITH SALES</t>
+  </si>
+  <si>
+    <t>$7880</t>
+  </si>
+  <si>
+    <t>$11608</t>
+  </si>
+  <si>
+    <t>$-3728</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>HOFFMAN SAAB</t>
+  </si>
+  <si>
+    <t>$7532</t>
+  </si>
+  <si>
+    <t>$3740</t>
+  </si>
+  <si>
+    <t>$3792</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>KARP SAAB</t>
+  </si>
+  <si>
+    <t>$7191</t>
+  </si>
+  <si>
+    <t>$8729</t>
+  </si>
+  <si>
+    <t>$-1538</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>WRIGHT SAAB</t>
+  </si>
+  <si>
+    <t>$7094</t>
+  </si>
+  <si>
+    <t>$10272</t>
+  </si>
+  <si>
+    <t>$-3178</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>THE GREAT BRITAINS</t>
+  </si>
+  <si>
+    <t>$7009</t>
+  </si>
+  <si>
+    <t>$5494</t>
+  </si>
+  <si>
+    <t>$1515</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>REINERTSEN MOTORS INC.</t>
+  </si>
+  <si>
+    <t>$6557</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>SAAB OF RICHMOND</t>
+  </si>
+  <si>
+    <t>$6214</t>
+  </si>
+  <si>
+    <t>$7066</t>
+  </si>
+  <si>
+    <t>$-851</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>PERFORMANCE AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>$5872</t>
+  </si>
+  <si>
+    <t>$8190</t>
+  </si>
+  <si>
+    <t>$-2319</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>SCOTT SAAB</t>
+  </si>
+  <si>
+    <t>$5862</t>
+  </si>
+  <si>
+    <t>$8368</t>
+  </si>
+  <si>
+    <t>$-2506</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>QUIRK SAAB OF BANGOR</t>
+  </si>
+  <si>
+    <t>$5814</t>
+  </si>
+  <si>
+    <t>$5234</t>
+  </si>
+  <si>
+    <t>$580</t>
+  </si>
+  <si>
+    <t>2199</t>
+  </si>
+  <si>
+    <t>GENERAL SALES SAAB</t>
+  </si>
+  <si>
+    <t>$5780</t>
+  </si>
+  <si>
+    <t>$15460</t>
+  </si>
+  <si>
+    <t>$-9680</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>COLD BROOK SAAB</t>
+  </si>
+  <si>
+    <t>$5706</t>
+  </si>
+  <si>
+    <t>$9809</t>
+  </si>
+  <si>
+    <t>$-4103</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>EUROPEAN SPECIALISTS</t>
+  </si>
+  <si>
+    <t>$5478</t>
+  </si>
+  <si>
+    <t>$3876</t>
+  </si>
+  <si>
+    <t>$1602</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>SUTTLE MOTOR CORPORATION</t>
+  </si>
+  <si>
+    <t>$4700</t>
+  </si>
+  <si>
+    <t>$-2011</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>UNION LINE GARAGE</t>
+  </si>
+  <si>
+    <t>$4641</t>
+  </si>
+  <si>
+    <t>$5645</t>
+  </si>
+  <si>
+    <t>$-1004</t>
+  </si>
+  <si>
+    <t>2379</t>
+  </si>
+  <si>
+    <t>FAULKNER CADILLAC</t>
+  </si>
+  <si>
+    <t>$4633</t>
+  </si>
+  <si>
+    <t>$6380</t>
+  </si>
+  <si>
+    <t>$-1748</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>DEAN HILL SAAB</t>
+  </si>
+  <si>
+    <t>$4604</t>
+  </si>
+  <si>
+    <t>$13789</t>
+  </si>
+  <si>
+    <t>$-9185</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>BROWNELL MOTORS</t>
+  </si>
+  <si>
+    <t>$4582</t>
+  </si>
+  <si>
+    <t>$5444</t>
+  </si>
+  <si>
+    <t>$-862</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>ARMEN SAAB OF ARDMORE</t>
+  </si>
+  <si>
+    <t>$4525</t>
+  </si>
+  <si>
+    <t>$10095</t>
+  </si>
+  <si>
+    <t>$-5570</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>JOSEPH CHERMAK, INC.</t>
+  </si>
+  <si>
+    <t>$4511</t>
+  </si>
+  <si>
+    <t>$6458</t>
+  </si>
+  <si>
+    <t>$-1947</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>CHERRY HILL CLASSIC CARS</t>
+  </si>
+  <si>
+    <t>$4502</t>
+  </si>
+  <si>
+    <t>$5040</t>
+  </si>
+  <si>
+    <t>$-538</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>HERB CHAMBERS SAAB</t>
+  </si>
+  <si>
+    <t>$4383</t>
+  </si>
+  <si>
+    <t>$5656</t>
+  </si>
+  <si>
+    <t>$-1273</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>CAPPELLINO BUICK PONTIAC G</t>
+  </si>
+  <si>
+    <t>$4262</t>
+  </si>
+  <si>
+    <t>$9212</t>
+  </si>
+  <si>
+    <t>$-4950</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>ARROWAY CHEVROLET INC.</t>
+  </si>
+  <si>
+    <t>$4169</t>
+  </si>
+  <si>
+    <t>$5013</t>
+  </si>
+  <si>
+    <t>$-844</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>BECK CHEVROLET SAAB</t>
+  </si>
+  <si>
+    <t>$4075</t>
+  </si>
+  <si>
+    <t>$5532</t>
+  </si>
+  <si>
+    <t>$-1457</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>RUTLAND SAAB</t>
+  </si>
+  <si>
+    <t>$3937</t>
+  </si>
+  <si>
+    <t>$1578</t>
+  </si>
+  <si>
+    <t>$2359</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>PIONEER VALLEY SALES &amp; SERV</t>
+  </si>
+  <si>
+    <t>$3934</t>
+  </si>
+  <si>
+    <t>$6967</t>
+  </si>
+  <si>
+    <t>$-3034</t>
+  </si>
+  <si>
+    <t>2383</t>
+  </si>
+  <si>
+    <t>UPSTATE IMPORTS</t>
+  </si>
+  <si>
+    <t>$3910</t>
+  </si>
+  <si>
+    <t>$10414</t>
+  </si>
+  <si>
+    <t>$-6504</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>NORTH SHORE SAAB</t>
+  </si>
+  <si>
+    <t>$3854</t>
+  </si>
+  <si>
+    <t>$8292</t>
+  </si>
+  <si>
+    <t>$-4438</t>
+  </si>
+  <si>
+    <t>2419</t>
+  </si>
+  <si>
+    <t>KINGSWAY MOTORS, INC</t>
+  </si>
+  <si>
+    <t>$3672</t>
+  </si>
+  <si>
+    <t>$4420</t>
+  </si>
+  <si>
+    <t>$-748</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>CHECKPOINT FOREIGN CAR SAL</t>
+  </si>
+  <si>
+    <t>$3651</t>
+  </si>
+  <si>
+    <t>$6587</t>
+  </si>
+  <si>
+    <t>$-2936</t>
+  </si>
+  <si>
+    <t>2166</t>
+  </si>
+  <si>
+    <t>BAY SAAB OF NORFOLK</t>
+  </si>
+  <si>
+    <t>$3412</t>
+  </si>
+  <si>
+    <t>$8547</t>
+  </si>
+  <si>
+    <t>$-5136</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>CADILLAC OF GREENWICH</t>
+  </si>
+  <si>
+    <t>$3404</t>
+  </si>
+  <si>
+    <t>$11788</t>
+  </si>
+  <si>
+    <t>$-8385</t>
+  </si>
+  <si>
+    <t>2318</t>
+  </si>
+  <si>
+    <t>PERRINE SAAB</t>
+  </si>
+  <si>
+    <t>$2953</t>
+  </si>
+  <si>
+    <t>$-3634</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>VERTUCCI AUTOMOTIVE, INC.</t>
+  </si>
+  <si>
+    <t>$2547</t>
+  </si>
+  <si>
+    <t>$1698</t>
+  </si>
+  <si>
+    <t>$849</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>POTAMKIN CAD-BUICK-CHEV-S</t>
+  </si>
+  <si>
+    <t>$2213</t>
+  </si>
+  <si>
+    <t>$1606</t>
+  </si>
+  <si>
+    <t>$608</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>COUNTRY SAAB OF ORANGE C</t>
+  </si>
+  <si>
+    <t>$2140</t>
+  </si>
+  <si>
+    <t>$3956</t>
+  </si>
+  <si>
+    <t>$-1816</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>NEW ENGLAND IMPORTS</t>
+  </si>
+  <si>
+    <t>$1957</t>
+  </si>
+  <si>
+    <t>$1572</t>
+  </si>
+  <si>
+    <t>$385</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>EUROTECH</t>
+  </si>
+  <si>
+    <t>$1860</t>
+  </si>
+  <si>
+    <t>$6595</t>
+  </si>
+  <si>
+    <t>$-4735</t>
+  </si>
+  <si>
+    <t>2388</t>
+  </si>
+  <si>
+    <t>LEWIS AUTO SALES</t>
+  </si>
+  <si>
+    <t>$1854</t>
+  </si>
+  <si>
+    <t>$3804</t>
+  </si>
+  <si>
+    <t>$-1950</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>GOLD COAST CADILLAC</t>
+  </si>
+  <si>
+    <t>$1827</t>
+  </si>
+  <si>
+    <t>$5451</t>
+  </si>
+  <si>
+    <t>$-3624</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>KUNKLE MOTORS</t>
+  </si>
+  <si>
+    <t>$1694</t>
+  </si>
+  <si>
+    <t>$182</t>
+  </si>
+  <si>
+    <t>$1512</t>
+  </si>
+  <si>
+    <t>2430</t>
+  </si>
+  <si>
+    <t>Beachwood Saab</t>
+  </si>
+  <si>
+    <t>$1689</t>
+  </si>
+  <si>
+    <t>$4314</t>
+  </si>
+  <si>
+    <t>$-2625</t>
+  </si>
+  <si>
+    <t>2366</t>
+  </si>
+  <si>
+    <t>SHEPARD CHRYSLER DODGE JE</t>
+  </si>
+  <si>
+    <t>$1399</t>
+  </si>
+  <si>
+    <t>$1655</t>
+  </si>
+  <si>
+    <t>$-256</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>FATHERS &amp; SONS SAAB</t>
+  </si>
+  <si>
+    <t>$1208</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>MAYORS AUTO MALL SAAB</t>
+  </si>
+  <si>
+    <t>$1139</t>
+  </si>
+  <si>
+    <t>$1533</t>
+  </si>
+  <si>
+    <t>$-394</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>#1 COCHRAN SAAB</t>
+  </si>
+  <si>
+    <t>$1041</t>
+  </si>
+  <si>
+    <t>$1790</t>
+  </si>
+  <si>
+    <t>$-749</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>RAMSEY SAAB</t>
+  </si>
+  <si>
+    <t>$1000</t>
+  </si>
+  <si>
+    <t>$150</t>
+  </si>
+  <si>
+    <t>$850</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>F C KERBECK &amp; SONS</t>
+  </si>
+  <si>
+    <t>$652</t>
+  </si>
+  <si>
+    <t>$1784</t>
+  </si>
+  <si>
+    <t>$-1132</t>
+  </si>
+  <si>
+    <t>-2433</t>
+  </si>
+  <si>
+    <t>DEBOERS AUTO</t>
+  </si>
+  <si>
+    <t>$567</t>
+  </si>
+  <si>
+    <t>$2088</t>
+  </si>
+  <si>
+    <t>$-1521</t>
   </si>
 </sst>
 </file>
@@ -559,7 +3193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,295 +3240,4914 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J34" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>197</v>
+      </c>
+      <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J40" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J41" t="s">
+        <v>216</v>
+      </c>
+      <c r="K41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" t="s">
+        <v>225</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J46" t="s">
+        <v>241</v>
+      </c>
+      <c r="K46" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J47" t="s">
+        <v>246</v>
+      </c>
+      <c r="K47" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J48" t="s">
+        <v>251</v>
+      </c>
+      <c r="K48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>257</v>
+      </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>260</v>
+      </c>
+      <c r="K50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J51" t="s">
+        <v>265</v>
+      </c>
+      <c r="K51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>270</v>
+      </c>
+      <c r="K52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" t="s">
+        <v>274</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>276</v>
+      </c>
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" t="s">
+        <v>279</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J54" t="s">
+        <v>280</v>
+      </c>
+      <c r="K54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>283</v>
+      </c>
+      <c r="H55" t="s">
+        <v>284</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>285</v>
+      </c>
+      <c r="K55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>286</v>
+      </c>
+      <c r="B56" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J56" t="s">
+        <v>290</v>
+      </c>
+      <c r="K56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>291</v>
+      </c>
+      <c r="B57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" t="s">
+        <v>294</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>295</v>
+      </c>
+      <c r="K57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" t="s">
+        <v>298</v>
+      </c>
+      <c r="H58" t="s">
+        <v>299</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K58" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>301</v>
+      </c>
+      <c r="B59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" t="s">
+        <v>303</v>
+      </c>
+      <c r="H59" t="s">
+        <v>304</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K59" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>306</v>
+      </c>
+      <c r="B60" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" t="s">
+        <v>309</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>310</v>
+      </c>
+      <c r="K60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J61" t="s">
+        <v>315</v>
+      </c>
+      <c r="K61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" t="s">
+        <v>318</v>
+      </c>
+      <c r="H62" t="s">
+        <v>319</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" t="s">
+        <v>324</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>325</v>
+      </c>
+      <c r="K63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" t="s">
+        <v>329</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>330</v>
+      </c>
+      <c r="K64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" t="s">
+        <v>333</v>
+      </c>
+      <c r="H65" t="s">
+        <v>334</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>335</v>
+      </c>
+      <c r="K65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>338</v>
+      </c>
+      <c r="H66" t="s">
+        <v>339</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J66" t="s">
+        <v>340</v>
+      </c>
+      <c r="K66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" t="s">
+        <v>343</v>
+      </c>
+      <c r="H67" t="s">
+        <v>344</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J67" t="s">
+        <v>345</v>
+      </c>
+      <c r="K67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" t="s">
+        <v>349</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J68" t="s">
+        <v>350</v>
+      </c>
+      <c r="K68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H69" t="s">
+        <v>354</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J69" t="s">
+        <v>355</v>
+      </c>
+      <c r="K69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" t="s">
+        <v>359</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>360</v>
+      </c>
+      <c r="K70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>363</v>
+      </c>
+      <c r="H71" t="s">
+        <v>364</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>365</v>
+      </c>
+      <c r="K71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
+        <v>367</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>368</v>
+      </c>
+      <c r="H72" t="s">
+        <v>369</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J72" t="s">
+        <v>370</v>
+      </c>
+      <c r="K72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" t="s">
+        <v>373</v>
+      </c>
+      <c r="H73" t="s">
+        <v>374</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" t="s">
+        <v>378</v>
+      </c>
+      <c r="H74" t="s">
+        <v>379</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>380</v>
+      </c>
+      <c r="K74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" t="s">
+        <v>383</v>
+      </c>
+      <c r="H75" t="s">
+        <v>384</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J75" t="s">
+        <v>385</v>
+      </c>
+      <c r="K75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>388</v>
+      </c>
+      <c r="H76" t="s">
+        <v>389</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J76" t="s">
+        <v>390</v>
+      </c>
+      <c r="K76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>391</v>
+      </c>
+      <c r="B77" t="s">
+        <v>392</v>
+      </c>
+      <c r="F77" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" t="s">
+        <v>393</v>
+      </c>
+      <c r="H77" t="s">
+        <v>394</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J77" t="s">
+        <v>395</v>
+      </c>
+      <c r="K77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78" t="s">
+        <v>397</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
+        <v>398</v>
+      </c>
+      <c r="H78" t="s">
+        <v>399</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J78" t="s">
+        <v>400</v>
+      </c>
+      <c r="K78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" t="s">
+        <v>403</v>
+      </c>
+      <c r="H79" t="s">
+        <v>404</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>405</v>
+      </c>
+      <c r="K79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" t="s">
+        <v>408</v>
+      </c>
+      <c r="H80" t="s">
+        <v>409</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J80" t="s">
+        <v>410</v>
+      </c>
+      <c r="K80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" t="s">
+        <v>412</v>
+      </c>
+      <c r="F81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>413</v>
+      </c>
+      <c r="H81" t="s">
+        <v>414</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J81" t="s">
+        <v>415</v>
+      </c>
+      <c r="K81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" t="s">
+        <v>417</v>
+      </c>
+      <c r="F82" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" t="s">
+        <v>419</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J82" t="s">
+        <v>420</v>
+      </c>
+      <c r="K82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" t="s">
+        <v>422</v>
+      </c>
+      <c r="F83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" t="s">
+        <v>423</v>
+      </c>
+      <c r="H83" t="s">
+        <v>424</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J83" t="s">
+        <v>425</v>
+      </c>
+      <c r="K83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>426</v>
+      </c>
+      <c r="B84" t="s">
+        <v>427</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" t="s">
+        <v>428</v>
+      </c>
+      <c r="H84" t="s">
+        <v>429</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>430</v>
+      </c>
+      <c r="K84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" t="s">
+        <v>432</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" t="s">
+        <v>433</v>
+      </c>
+      <c r="H85" t="s">
+        <v>434</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J85" t="s">
+        <v>435</v>
+      </c>
+      <c r="K85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>436</v>
+      </c>
+      <c r="B86" t="s">
+        <v>437</v>
+      </c>
+      <c r="F86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>438</v>
+      </c>
+      <c r="H86" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J86" t="s">
+        <v>440</v>
+      </c>
+      <c r="K86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>441</v>
+      </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" t="s">
+        <v>443</v>
+      </c>
+      <c r="H87" t="s">
+        <v>444</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J87" t="s">
+        <v>445</v>
+      </c>
+      <c r="K87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>446</v>
+      </c>
+      <c r="B88" t="s">
+        <v>447</v>
+      </c>
+      <c r="F88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" t="s">
+        <v>448</v>
+      </c>
+      <c r="H88" t="s">
+        <v>449</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>451</v>
+      </c>
+      <c r="B89" t="s">
+        <v>452</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s">
+        <v>453</v>
+      </c>
+      <c r="H89" t="s">
+        <v>454</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J89" t="s">
+        <v>455</v>
+      </c>
+      <c r="K89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>456</v>
+      </c>
+      <c r="B90" t="s">
+        <v>457</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" t="s">
+        <v>458</v>
+      </c>
+      <c r="H90" t="s">
+        <v>459</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J90" t="s">
+        <v>460</v>
+      </c>
+      <c r="K90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>461</v>
+      </c>
+      <c r="B91" t="s">
+        <v>462</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" t="s">
+        <v>463</v>
+      </c>
+      <c r="H91" t="s">
+        <v>464</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>465</v>
+      </c>
+      <c r="K91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>466</v>
+      </c>
+      <c r="B92" t="s">
+        <v>467</v>
+      </c>
+      <c r="F92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" t="s">
+        <v>468</v>
+      </c>
+      <c r="H92" t="s">
+        <v>469</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J92" t="s">
+        <v>470</v>
+      </c>
+      <c r="K92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>471</v>
+      </c>
+      <c r="B93" t="s">
+        <v>472</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" t="s">
+        <v>473</v>
+      </c>
+      <c r="H93" t="s">
+        <v>474</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J93" t="s">
+        <v>475</v>
+      </c>
+      <c r="K93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>476</v>
+      </c>
+      <c r="B94" t="s">
+        <v>477</v>
+      </c>
+      <c r="F94" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" t="s">
+        <v>478</v>
+      </c>
+      <c r="H94" t="s">
+        <v>479</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>480</v>
+      </c>
+      <c r="K94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" t="s">
+        <v>482</v>
+      </c>
+      <c r="F95" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" t="s">
+        <v>484</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>485</v>
+      </c>
+      <c r="K95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>486</v>
+      </c>
+      <c r="B96" t="s">
+        <v>487</v>
+      </c>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" t="s">
+        <v>488</v>
+      </c>
+      <c r="H96" t="s">
+        <v>489</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J96" t="s">
+        <v>490</v>
+      </c>
+      <c r="K96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>491</v>
+      </c>
+      <c r="B97" t="s">
+        <v>492</v>
+      </c>
+      <c r="F97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" t="s">
+        <v>493</v>
+      </c>
+      <c r="H97" t="s">
+        <v>494</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J97" t="s">
+        <v>495</v>
+      </c>
+      <c r="K97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>496</v>
+      </c>
+      <c r="B98" t="s">
+        <v>497</v>
+      </c>
+      <c r="F98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" t="s">
+        <v>498</v>
+      </c>
+      <c r="H98" t="s">
+        <v>499</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J98" t="s">
+        <v>500</v>
+      </c>
+      <c r="K98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>501</v>
+      </c>
+      <c r="B99" t="s">
+        <v>502</v>
+      </c>
+      <c r="F99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" t="s">
+        <v>503</v>
+      </c>
+      <c r="H99" t="s">
+        <v>504</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J99" t="s">
+        <v>505</v>
+      </c>
+      <c r="K99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" t="s">
+        <v>507</v>
+      </c>
+      <c r="F100" t="s">
+        <v>138</v>
+      </c>
+      <c r="G100" t="s">
+        <v>508</v>
+      </c>
+      <c r="H100" t="s">
+        <v>509</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J100" t="s">
+        <v>510</v>
+      </c>
+      <c r="K100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>511</v>
+      </c>
+      <c r="B101" t="s">
+        <v>512</v>
+      </c>
+      <c r="F101" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" t="s">
+        <v>513</v>
+      </c>
+      <c r="H101" t="s">
+        <v>514</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>515</v>
+      </c>
+      <c r="K101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>516</v>
+      </c>
+      <c r="B102" t="s">
+        <v>517</v>
+      </c>
+      <c r="F102" t="s">
+        <v>138</v>
+      </c>
+      <c r="G102" t="s">
+        <v>518</v>
+      </c>
+      <c r="H102" t="s">
+        <v>519</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J102" t="s">
+        <v>520</v>
+      </c>
+      <c r="K102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>521</v>
+      </c>
+      <c r="B103" t="s">
+        <v>522</v>
+      </c>
+      <c r="F103" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" t="s">
+        <v>523</v>
+      </c>
+      <c r="H103" t="s">
+        <v>524</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J103" t="s">
+        <v>525</v>
+      </c>
+      <c r="K103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>526</v>
+      </c>
+      <c r="B104" t="s">
+        <v>527</v>
+      </c>
+      <c r="F104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" t="s">
+        <v>528</v>
+      </c>
+      <c r="H104" t="s">
+        <v>529</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J104" t="s">
+        <v>530</v>
+      </c>
+      <c r="K104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>531</v>
+      </c>
+      <c r="B105" t="s">
+        <v>532</v>
+      </c>
+      <c r="F105" t="s">
+        <v>138</v>
+      </c>
+      <c r="G105" t="s">
+        <v>533</v>
+      </c>
+      <c r="H105" t="s">
+        <v>534</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J105" t="s">
+        <v>535</v>
+      </c>
+      <c r="K105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B106" t="s">
+        <v>537</v>
+      </c>
+      <c r="F106" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" t="s">
+        <v>538</v>
+      </c>
+      <c r="H106" t="s">
+        <v>539</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J106" t="s">
+        <v>540</v>
+      </c>
+      <c r="K106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>541</v>
+      </c>
+      <c r="B107" t="s">
+        <v>542</v>
+      </c>
+      <c r="F107" t="s">
+        <v>138</v>
+      </c>
+      <c r="G107" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" t="s">
+        <v>544</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J107" t="s">
+        <v>545</v>
+      </c>
+      <c r="K107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>546</v>
+      </c>
+      <c r="B108" t="s">
+        <v>547</v>
+      </c>
+      <c r="F108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>548</v>
+      </c>
+      <c r="H108" t="s">
+        <v>549</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J108" t="s">
+        <v>550</v>
+      </c>
+      <c r="K108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>551</v>
+      </c>
+      <c r="B109" t="s">
+        <v>552</v>
+      </c>
+      <c r="F109" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" t="s">
+        <v>553</v>
+      </c>
+      <c r="H109" t="s">
+        <v>554</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J109" t="s">
+        <v>555</v>
+      </c>
+      <c r="K109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>556</v>
+      </c>
+      <c r="B110" t="s">
+        <v>557</v>
+      </c>
+      <c r="F110" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>558</v>
+      </c>
+      <c r="H110" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>558</v>
+      </c>
+      <c r="K110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>559</v>
+      </c>
+      <c r="B111" t="s">
+        <v>560</v>
+      </c>
+      <c r="F111" t="s">
+        <v>138</v>
+      </c>
+      <c r="G111" t="s">
+        <v>561</v>
+      </c>
+      <c r="H111" t="s">
+        <v>562</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J111" t="s">
+        <v>563</v>
+      </c>
+      <c r="K111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>564</v>
+      </c>
+      <c r="B112" t="s">
+        <v>565</v>
+      </c>
+      <c r="F112" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" t="s">
+        <v>566</v>
+      </c>
+      <c r="H112" t="s">
+        <v>567</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J112" t="s">
+        <v>568</v>
+      </c>
+      <c r="K112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>569</v>
+      </c>
+      <c r="B113" t="s">
+        <v>570</v>
+      </c>
+      <c r="F113" t="s">
+        <v>138</v>
+      </c>
+      <c r="G113" t="s">
+        <v>571</v>
+      </c>
+      <c r="H113" t="s">
+        <v>140</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>571</v>
+      </c>
+      <c r="K113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>572</v>
+      </c>
+      <c r="B114" t="s">
+        <v>573</v>
+      </c>
+      <c r="F114" t="s">
+        <v>138</v>
+      </c>
+      <c r="G114" t="s">
+        <v>574</v>
+      </c>
+      <c r="H114" t="s">
+        <v>575</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J114" t="s">
+        <v>576</v>
+      </c>
+      <c r="K114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>577</v>
+      </c>
+      <c r="B115" t="s">
+        <v>578</v>
+      </c>
+      <c r="F115" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" t="s">
+        <v>579</v>
+      </c>
+      <c r="H115" t="s">
+        <v>140</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>579</v>
+      </c>
+      <c r="K115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>580</v>
+      </c>
+      <c r="B116" t="s">
+        <v>581</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>582</v>
+      </c>
+      <c r="H116" t="s">
+        <v>583</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J116" t="s">
+        <v>584</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>585</v>
+      </c>
+      <c r="B117" t="s">
+        <v>586</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>587</v>
+      </c>
+      <c r="H117" t="s">
+        <v>588</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J117" t="s">
+        <v>589</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>590</v>
+      </c>
+      <c r="B118" t="s">
+        <v>591</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>592</v>
+      </c>
+      <c r="H118" t="s">
+        <v>593</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J118" t="s">
+        <v>594</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>595</v>
+      </c>
+      <c r="B119" t="s">
+        <v>596</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>597</v>
+      </c>
+      <c r="H119" t="s">
+        <v>598</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J119" t="s">
+        <v>599</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>600</v>
+      </c>
+      <c r="B120" t="s">
+        <v>601</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>602</v>
+      </c>
+      <c r="H120" t="s">
+        <v>603</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J120" t="s">
+        <v>604</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>605</v>
+      </c>
+      <c r="B121" t="s">
+        <v>606</v>
+      </c>
+      <c r="F121" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" t="s">
+        <v>607</v>
+      </c>
+      <c r="H121" t="s">
+        <v>608</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J121" t="s">
+        <v>609</v>
+      </c>
+      <c r="K121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>610</v>
+      </c>
+      <c r="B122" t="s">
+        <v>611</v>
+      </c>
+      <c r="F122" t="s">
+        <v>56</v>
+      </c>
+      <c r="G122" t="s">
+        <v>612</v>
+      </c>
+      <c r="H122" t="s">
+        <v>613</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>614</v>
+      </c>
+      <c r="K122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>615</v>
+      </c>
+      <c r="B123" t="s">
+        <v>616</v>
+      </c>
+      <c r="F123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123" t="s">
+        <v>617</v>
+      </c>
+      <c r="H123" t="s">
+        <v>618</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J123" t="s">
+        <v>619</v>
+      </c>
+      <c r="K123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>620</v>
+      </c>
+      <c r="B124" t="s">
+        <v>621</v>
+      </c>
+      <c r="F124" t="s">
+        <v>56</v>
+      </c>
+      <c r="G124" t="s">
+        <v>622</v>
+      </c>
+      <c r="H124" t="s">
+        <v>623</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J124" t="s">
+        <v>624</v>
+      </c>
+      <c r="K124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>625</v>
+      </c>
+      <c r="B125" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" t="s">
+        <v>627</v>
+      </c>
+      <c r="H125" t="s">
+        <v>628</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J125" t="s">
+        <v>629</v>
+      </c>
+      <c r="K125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>630</v>
+      </c>
+      <c r="B126" t="s">
+        <v>631</v>
+      </c>
+      <c r="F126" t="s">
+        <v>56</v>
+      </c>
+      <c r="G126" t="s">
+        <v>632</v>
+      </c>
+      <c r="H126" t="s">
+        <v>633</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J126" t="s">
+        <v>634</v>
+      </c>
+      <c r="K126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>635</v>
+      </c>
+      <c r="B127" t="s">
+        <v>636</v>
+      </c>
+      <c r="F127" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" t="s">
+        <v>637</v>
+      </c>
+      <c r="H127" t="s">
+        <v>638</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J127" t="s">
+        <v>639</v>
+      </c>
+      <c r="K127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>640</v>
+      </c>
+      <c r="B128" t="s">
+        <v>641</v>
+      </c>
+      <c r="F128" t="s">
+        <v>56</v>
+      </c>
+      <c r="G128" t="s">
+        <v>642</v>
+      </c>
+      <c r="H128" t="s">
+        <v>643</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J128" t="s">
+        <v>644</v>
+      </c>
+      <c r="K128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>645</v>
+      </c>
+      <c r="B129" t="s">
+        <v>646</v>
+      </c>
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" t="s">
+        <v>647</v>
+      </c>
+      <c r="H129" t="s">
+        <v>648</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>649</v>
+      </c>
+      <c r="K129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>650</v>
+      </c>
+      <c r="B130" t="s">
+        <v>651</v>
+      </c>
+      <c r="F130" t="s">
+        <v>56</v>
+      </c>
+      <c r="G130" t="s">
+        <v>652</v>
+      </c>
+      <c r="H130" t="s">
+        <v>653</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J130" t="s">
+        <v>654</v>
+      </c>
+      <c r="K130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>655</v>
+      </c>
+      <c r="B131" t="s">
+        <v>656</v>
+      </c>
+      <c r="F131" t="s">
+        <v>56</v>
+      </c>
+      <c r="G131" t="s">
+        <v>657</v>
+      </c>
+      <c r="H131" t="s">
+        <v>658</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J131" t="s">
+        <v>659</v>
+      </c>
+      <c r="K131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>660</v>
+      </c>
+      <c r="B132" t="s">
+        <v>661</v>
+      </c>
+      <c r="F132" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" t="s">
+        <v>662</v>
+      </c>
+      <c r="H132" t="s">
+        <v>663</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J132" t="s">
+        <v>664</v>
+      </c>
+      <c r="K132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>665</v>
+      </c>
+      <c r="B133" t="s">
+        <v>666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>56</v>
+      </c>
+      <c r="G133" t="s">
+        <v>667</v>
+      </c>
+      <c r="H133" t="s">
+        <v>668</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>669</v>
+      </c>
+      <c r="K133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>670</v>
+      </c>
+      <c r="B134" t="s">
+        <v>671</v>
+      </c>
+      <c r="F134" t="s">
+        <v>56</v>
+      </c>
+      <c r="G134" t="s">
+        <v>672</v>
+      </c>
+      <c r="H134" t="s">
+        <v>673</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J134" t="s">
+        <v>674</v>
+      </c>
+      <c r="K134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>675</v>
+      </c>
+      <c r="B135" t="s">
+        <v>676</v>
+      </c>
+      <c r="F135" t="s">
+        <v>56</v>
+      </c>
+      <c r="G135" t="s">
+        <v>677</v>
+      </c>
+      <c r="H135" t="s">
+        <v>678</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J135" t="s">
+        <v>679</v>
+      </c>
+      <c r="K135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>680</v>
+      </c>
+      <c r="B136" t="s">
+        <v>681</v>
+      </c>
+      <c r="F136" t="s">
+        <v>56</v>
+      </c>
+      <c r="G136" t="s">
+        <v>682</v>
+      </c>
+      <c r="H136" t="s">
+        <v>683</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J136" t="s">
+        <v>684</v>
+      </c>
+      <c r="K136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>685</v>
+      </c>
+      <c r="B137" t="s">
+        <v>686</v>
+      </c>
+      <c r="F137" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" t="s">
+        <v>687</v>
+      </c>
+      <c r="H137" t="s">
+        <v>688</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J137" t="s">
+        <v>689</v>
+      </c>
+      <c r="K137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>690</v>
+      </c>
+      <c r="B138" t="s">
+        <v>691</v>
+      </c>
+      <c r="F138" t="s">
+        <v>56</v>
+      </c>
+      <c r="G138" t="s">
+        <v>692</v>
+      </c>
+      <c r="H138" t="s">
+        <v>693</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J138" t="s">
+        <v>694</v>
+      </c>
+      <c r="K138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>695</v>
+      </c>
+      <c r="B139" t="s">
+        <v>512</v>
+      </c>
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+      <c r="G139" t="s">
+        <v>696</v>
+      </c>
+      <c r="H139" t="s">
+        <v>697</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J139" t="s">
+        <v>698</v>
+      </c>
+      <c r="K139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>699</v>
+      </c>
+      <c r="B140" t="s">
+        <v>700</v>
+      </c>
+      <c r="F140" t="s">
+        <v>56</v>
+      </c>
+      <c r="G140" t="s">
+        <v>701</v>
+      </c>
+      <c r="H140" t="s">
+        <v>702</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>703</v>
+      </c>
+      <c r="K140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>704</v>
+      </c>
+      <c r="B141" t="s">
+        <v>705</v>
+      </c>
+      <c r="F141" t="s">
+        <v>56</v>
+      </c>
+      <c r="G141" t="s">
+        <v>706</v>
+      </c>
+      <c r="H141" t="s">
+        <v>707</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J141" t="s">
+        <v>708</v>
+      </c>
+      <c r="K141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>709</v>
+      </c>
+      <c r="B142" t="s">
+        <v>710</v>
+      </c>
+      <c r="F142" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" t="s">
+        <v>711</v>
+      </c>
+      <c r="H142" t="s">
+        <v>712</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J142" t="s">
+        <v>713</v>
+      </c>
+      <c r="K142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>714</v>
+      </c>
+      <c r="B143" t="s">
+        <v>715</v>
+      </c>
+      <c r="F143" t="s">
+        <v>138</v>
+      </c>
+      <c r="G143" t="s">
+        <v>716</v>
+      </c>
+      <c r="H143" t="s">
+        <v>717</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>718</v>
+      </c>
+      <c r="K143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>719</v>
+      </c>
+      <c r="B144" t="s">
+        <v>720</v>
+      </c>
+      <c r="F144" t="s">
+        <v>56</v>
+      </c>
+      <c r="G144" t="s">
+        <v>721</v>
+      </c>
+      <c r="H144" t="s">
+        <v>722</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J144" t="s">
+        <v>723</v>
+      </c>
+      <c r="K144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>724</v>
+      </c>
+      <c r="B145" t="s">
+        <v>725</v>
+      </c>
+      <c r="F145" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" t="s">
+        <v>726</v>
+      </c>
+      <c r="H145" t="s">
+        <v>727</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J145" t="s">
+        <v>728</v>
+      </c>
+      <c r="K145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>729</v>
+      </c>
+      <c r="B146" t="s">
+        <v>730</v>
+      </c>
+      <c r="F146" t="s">
+        <v>138</v>
+      </c>
+      <c r="G146" t="s">
+        <v>731</v>
+      </c>
+      <c r="H146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>731</v>
+      </c>
+      <c r="K146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>732</v>
+      </c>
+      <c r="B147" t="s">
+        <v>733</v>
+      </c>
+      <c r="F147" t="s">
+        <v>56</v>
+      </c>
+      <c r="G147" t="s">
+        <v>734</v>
+      </c>
+      <c r="H147" t="s">
+        <v>735</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>736</v>
+      </c>
+      <c r="K147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>737</v>
+      </c>
+      <c r="B148" t="s">
+        <v>738</v>
+      </c>
+      <c r="F148" t="s">
+        <v>138</v>
+      </c>
+      <c r="G148" t="s">
+        <v>739</v>
+      </c>
+      <c r="H148" t="s">
+        <v>740</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J148" t="s">
+        <v>741</v>
+      </c>
+      <c r="K148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>742</v>
+      </c>
+      <c r="B149" t="s">
+        <v>743</v>
+      </c>
+      <c r="F149" t="s">
+        <v>56</v>
+      </c>
+      <c r="G149" t="s">
+        <v>744</v>
+      </c>
+      <c r="H149" t="s">
+        <v>745</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J149" t="s">
+        <v>746</v>
+      </c>
+      <c r="K149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>747</v>
+      </c>
+      <c r="B150" t="s">
+        <v>748</v>
+      </c>
+      <c r="F150" t="s">
+        <v>56</v>
+      </c>
+      <c r="G150" t="s">
+        <v>749</v>
+      </c>
+      <c r="H150" t="s">
+        <v>750</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J150" t="s">
+        <v>751</v>
+      </c>
+      <c r="K150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>752</v>
+      </c>
+      <c r="B151" t="s">
+        <v>753</v>
+      </c>
+      <c r="F151" t="s">
+        <v>56</v>
+      </c>
+      <c r="G151" t="s">
+        <v>754</v>
+      </c>
+      <c r="H151" t="s">
+        <v>755</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J151" t="s">
+        <v>756</v>
+      </c>
+      <c r="K151" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>757</v>
+      </c>
+      <c r="B152" t="s">
+        <v>758</v>
+      </c>
+      <c r="F152" t="s">
+        <v>56</v>
+      </c>
+      <c r="G152" t="s">
+        <v>759</v>
+      </c>
+      <c r="H152" t="s">
+        <v>760</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J152" t="s">
+        <v>761</v>
+      </c>
+      <c r="K152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>762</v>
+      </c>
+      <c r="B153" t="s">
+        <v>763</v>
+      </c>
+      <c r="F153" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" t="s">
+        <v>764</v>
+      </c>
+      <c r="H153" t="s">
+        <v>765</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J153" t="s">
+        <v>766</v>
+      </c>
+      <c r="K153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>767</v>
+      </c>
+      <c r="B154" t="s">
+        <v>768</v>
+      </c>
+      <c r="F154" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" t="s">
+        <v>769</v>
+      </c>
+      <c r="H154" t="s">
+        <v>294</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J154" t="s">
+        <v>770</v>
+      </c>
+      <c r="K154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>771</v>
+      </c>
+      <c r="B155" t="s">
+        <v>772</v>
+      </c>
+      <c r="F155" t="s">
+        <v>56</v>
+      </c>
+      <c r="G155" t="s">
+        <v>773</v>
+      </c>
+      <c r="H155" t="s">
+        <v>774</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J155" t="s">
+        <v>775</v>
+      </c>
+      <c r="K155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>776</v>
+      </c>
+      <c r="B156" t="s">
+        <v>777</v>
+      </c>
+      <c r="F156" t="s">
+        <v>56</v>
+      </c>
+      <c r="G156" t="s">
+        <v>778</v>
+      </c>
+      <c r="H156" t="s">
+        <v>779</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J156" t="s">
+        <v>780</v>
+      </c>
+      <c r="K156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>781</v>
+      </c>
+      <c r="B157" t="s">
+        <v>782</v>
+      </c>
+      <c r="F157" t="s">
+        <v>56</v>
+      </c>
+      <c r="G157" t="s">
+        <v>783</v>
+      </c>
+      <c r="H157" t="s">
+        <v>784</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="s">
+        <v>785</v>
+      </c>
+      <c r="K157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>786</v>
+      </c>
+      <c r="B158" t="s">
+        <v>787</v>
+      </c>
+      <c r="F158" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158" t="s">
+        <v>788</v>
+      </c>
+      <c r="H158" t="s">
+        <v>789</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J158" t="s">
+        <v>790</v>
+      </c>
+      <c r="K158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>791</v>
+      </c>
+      <c r="B159" t="s">
+        <v>792</v>
+      </c>
+      <c r="F159" t="s">
+        <v>56</v>
+      </c>
+      <c r="G159" t="s">
+        <v>793</v>
+      </c>
+      <c r="H159" t="s">
+        <v>794</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J159" t="s">
+        <v>795</v>
+      </c>
+      <c r="K159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>796</v>
+      </c>
+      <c r="B160" t="s">
+        <v>797</v>
+      </c>
+      <c r="F160" t="s">
+        <v>56</v>
+      </c>
+      <c r="G160" t="s">
+        <v>798</v>
+      </c>
+      <c r="H160" t="s">
+        <v>799</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J160" t="s">
+        <v>800</v>
+      </c>
+      <c r="K160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>801</v>
+      </c>
+      <c r="B161" t="s">
+        <v>802</v>
+      </c>
+      <c r="F161" t="s">
+        <v>138</v>
+      </c>
+      <c r="G161" t="s">
+        <v>803</v>
+      </c>
+      <c r="H161" t="s">
+        <v>804</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J161" t="s">
+        <v>805</v>
+      </c>
+      <c r="K161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>806</v>
+      </c>
+      <c r="B162" t="s">
+        <v>807</v>
+      </c>
+      <c r="F162" t="s">
+        <v>56</v>
+      </c>
+      <c r="G162" t="s">
+        <v>808</v>
+      </c>
+      <c r="H162" t="s">
+        <v>809</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J162" t="s">
+        <v>810</v>
+      </c>
+      <c r="K162" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>811</v>
+      </c>
+      <c r="B163" t="s">
+        <v>812</v>
+      </c>
+      <c r="F163" t="s">
+        <v>138</v>
+      </c>
+      <c r="G163" t="s">
+        <v>813</v>
+      </c>
+      <c r="H163" t="s">
+        <v>814</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>815</v>
+      </c>
+      <c r="K163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>816</v>
+      </c>
+      <c r="B164" t="s">
+        <v>817</v>
+      </c>
+      <c r="F164" t="s">
+        <v>56</v>
+      </c>
+      <c r="G164" t="s">
+        <v>818</v>
+      </c>
+      <c r="H164" t="s">
+        <v>819</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>820</v>
+      </c>
+      <c r="K164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>821</v>
+      </c>
+      <c r="B165" t="s">
+        <v>822</v>
+      </c>
+      <c r="F165" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165" t="s">
+        <v>823</v>
+      </c>
+      <c r="H165" t="s">
+        <v>824</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J165" t="s">
+        <v>825</v>
+      </c>
+      <c r="K165" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>826</v>
+      </c>
+      <c r="B166" t="s">
+        <v>827</v>
+      </c>
+      <c r="F166" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166" t="s">
+        <v>828</v>
+      </c>
+      <c r="H166" t="s">
+        <v>829</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J166" t="s">
+        <v>830</v>
+      </c>
+      <c r="K166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>831</v>
+      </c>
+      <c r="B167" t="s">
+        <v>832</v>
+      </c>
+      <c r="F167" t="s">
+        <v>138</v>
+      </c>
+      <c r="G167" t="s">
+        <v>833</v>
+      </c>
+      <c r="H167" t="s">
+        <v>834</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J167" t="s">
+        <v>835</v>
+      </c>
+      <c r="K167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>836</v>
+      </c>
+      <c r="B168" t="s">
+        <v>837</v>
+      </c>
+      <c r="F168" t="s">
+        <v>138</v>
+      </c>
+      <c r="G168" t="s">
+        <v>838</v>
+      </c>
+      <c r="H168" t="s">
+        <v>839</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J168" t="s">
+        <v>840</v>
+      </c>
+      <c r="K168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>841</v>
+      </c>
+      <c r="B169" t="s">
+        <v>842</v>
+      </c>
+      <c r="F169" t="s">
+        <v>138</v>
+      </c>
+      <c r="G169" t="s">
+        <v>843</v>
+      </c>
+      <c r="H169" t="s">
+        <v>844</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J169" t="s">
+        <v>845</v>
+      </c>
+      <c r="K169" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>846</v>
+      </c>
+      <c r="B170" t="s">
+        <v>847</v>
+      </c>
+      <c r="F170" t="s">
+        <v>138</v>
+      </c>
+      <c r="G170" t="s">
+        <v>848</v>
+      </c>
+      <c r="H170" t="s">
+        <v>849</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>850</v>
+      </c>
+      <c r="K170" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>851</v>
+      </c>
+      <c r="B171" t="s">
+        <v>852</v>
+      </c>
+      <c r="F171" t="s">
+        <v>138</v>
+      </c>
+      <c r="G171" t="s">
+        <v>853</v>
+      </c>
+      <c r="H171" t="s">
+        <v>854</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J171" t="s">
+        <v>855</v>
+      </c>
+      <c r="K171" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>856</v>
+      </c>
+      <c r="B172" t="s">
+        <v>857</v>
+      </c>
+      <c r="F172" t="s">
+        <v>138</v>
+      </c>
+      <c r="G172" t="s">
+        <v>858</v>
+      </c>
+      <c r="H172" t="s">
+        <v>859</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J172" t="s">
+        <v>860</v>
+      </c>
+      <c r="K172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>861</v>
+      </c>
+      <c r="B173" t="s">
+        <v>862</v>
+      </c>
+      <c r="F173" t="s">
+        <v>138</v>
+      </c>
+      <c r="G173" t="s">
+        <v>863</v>
+      </c>
+      <c r="H173" t="s">
+        <v>864</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J173" t="s">
+        <v>865</v>
+      </c>
+      <c r="K173" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>866</v>
+      </c>
+      <c r="B174" t="s">
+        <v>867</v>
+      </c>
+      <c r="F174" t="s">
+        <v>56</v>
+      </c>
+      <c r="G174" t="s">
+        <v>868</v>
+      </c>
+      <c r="H174" t="s">
+        <v>854</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J174" t="s">
+        <v>869</v>
+      </c>
+      <c r="K174" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>870</v>
+      </c>
+      <c r="B175" t="s">
+        <v>871</v>
+      </c>
+      <c r="F175" t="s">
+        <v>138</v>
+      </c>
+      <c r="G175" t="s">
+        <v>872</v>
+      </c>
+      <c r="H175" t="s">
+        <v>873</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J175" t="s">
+        <v>874</v>
+      </c>
+      <c r="K175" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>875</v>
+      </c>
+      <c r="B176" t="s">
+        <v>876</v>
+      </c>
+      <c r="F176" t="s">
+        <v>138</v>
+      </c>
+      <c r="G176" t="s">
+        <v>877</v>
+      </c>
+      <c r="H176" t="s">
+        <v>878</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J176" t="s">
+        <v>879</v>
+      </c>
+      <c r="K176" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>880</v>
+      </c>
+      <c r="B177" t="s">
+        <v>881</v>
+      </c>
+      <c r="F177" t="s">
+        <v>138</v>
+      </c>
+      <c r="G177" t="s">
+        <v>882</v>
+      </c>
+      <c r="H177" t="s">
+        <v>883</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J177" t="s">
+        <v>884</v>
+      </c>
+      <c r="K177" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>885</v>
+      </c>
+      <c r="B178" t="s">
+        <v>886</v>
+      </c>
+      <c r="F178" t="s">
+        <v>138</v>
+      </c>
+      <c r="G178" t="s">
+        <v>887</v>
+      </c>
+      <c r="H178" t="s">
+        <v>888</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J178" t="s">
+        <v>889</v>
+      </c>
+      <c r="K178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>890</v>
+      </c>
+      <c r="B179" t="s">
+        <v>891</v>
+      </c>
+      <c r="F179" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" t="s">
+        <v>892</v>
+      </c>
+      <c r="H179" t="s">
+        <v>893</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J179" t="s">
+        <v>894</v>
+      </c>
+      <c r="K179" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>895</v>
+      </c>
+      <c r="B180" t="s">
+        <v>896</v>
+      </c>
+      <c r="F180" t="s">
+        <v>138</v>
+      </c>
+      <c r="G180" t="s">
+        <v>897</v>
+      </c>
+      <c r="H180" t="s">
+        <v>898</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J180" t="s">
+        <v>899</v>
+      </c>
+      <c r="K180" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>900</v>
+      </c>
+      <c r="B181" t="s">
+        <v>901</v>
+      </c>
+      <c r="F181" t="s">
+        <v>138</v>
+      </c>
+      <c r="G181" t="s">
+        <v>902</v>
+      </c>
+      <c r="H181" t="s">
+        <v>903</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J181" t="s">
+        <v>904</v>
+      </c>
+      <c r="K181" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>905</v>
+      </c>
+      <c r="B182" t="s">
+        <v>906</v>
+      </c>
+      <c r="F182" t="s">
+        <v>138</v>
+      </c>
+      <c r="G182" t="s">
+        <v>907</v>
+      </c>
+      <c r="H182" t="s">
+        <v>908</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J182" t="s">
+        <v>909</v>
+      </c>
+      <c r="K182" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>910</v>
+      </c>
+      <c r="B183" t="s">
+        <v>911</v>
+      </c>
+      <c r="F183" t="s">
+        <v>138</v>
+      </c>
+      <c r="G183" t="s">
+        <v>912</v>
+      </c>
+      <c r="H183" t="s">
+        <v>913</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J183" t="s">
+        <v>914</v>
+      </c>
+      <c r="K183" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>915</v>
+      </c>
+      <c r="B184" t="s">
+        <v>916</v>
+      </c>
+      <c r="F184" t="s">
+        <v>138</v>
+      </c>
+      <c r="G184" t="s">
+        <v>917</v>
+      </c>
+      <c r="H184" t="s">
+        <v>918</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J184" t="s">
+        <v>919</v>
+      </c>
+      <c r="K184" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
+        <v>920</v>
+      </c>
+      <c r="B185" t="s">
+        <v>921</v>
+      </c>
+      <c r="F185" t="s">
+        <v>138</v>
+      </c>
+      <c r="G185" t="s">
+        <v>922</v>
+      </c>
+      <c r="H185" t="s">
+        <v>140</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>922</v>
+      </c>
+      <c r="K185" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
+        <v>923</v>
+      </c>
+      <c r="B186" t="s">
+        <v>924</v>
+      </c>
+      <c r="F186" t="s">
+        <v>138</v>
+      </c>
+      <c r="G186" t="s">
+        <v>925</v>
+      </c>
+      <c r="H186" t="s">
+        <v>926</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J186" t="s">
+        <v>927</v>
+      </c>
+      <c r="K186" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
+        <v>928</v>
+      </c>
+      <c r="B187" t="s">
+        <v>929</v>
+      </c>
+      <c r="F187" t="s">
+        <v>138</v>
+      </c>
+      <c r="G187" t="s">
+        <v>930</v>
+      </c>
+      <c r="H187" t="s">
+        <v>931</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J187" t="s">
+        <v>932</v>
+      </c>
+      <c r="K187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>933</v>
+      </c>
+      <c r="B188" t="s">
+        <v>934</v>
+      </c>
+      <c r="F188" t="s">
+        <v>138</v>
+      </c>
+      <c r="G188" t="s">
+        <v>935</v>
+      </c>
+      <c r="H188" t="s">
+        <v>936</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J188" t="s">
+        <v>937</v>
+      </c>
+      <c r="K188" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>938</v>
+      </c>
+      <c r="B189" t="s">
+        <v>939</v>
+      </c>
+      <c r="F189" t="s">
+        <v>138</v>
+      </c>
+      <c r="G189" t="s">
+        <v>940</v>
+      </c>
+      <c r="H189" t="s">
+        <v>941</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J189" t="s">
+        <v>942</v>
+      </c>
+      <c r="K189" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>943</v>
+      </c>
+      <c r="B190" t="s">
+        <v>944</v>
+      </c>
+      <c r="F190" t="s">
+        <v>56</v>
+      </c>
+      <c r="G190" t="s">
+        <v>945</v>
+      </c>
+      <c r="H190" t="s">
+        <v>946</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J190" t="s">
+        <v>947</v>
+      </c>
+      <c r="K190" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/MailMerge.xlsx
+++ b/MailMerge.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python36-32\Python Scripts\Mail Merge App\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1077">
   <si>
     <t>OSC Number</t>
   </si>
@@ -3250,20 +3255,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -3279,15 +3283,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3575,20 +3588,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E189" sqref="C2:E189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3649,7 +3665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3675,7 +3691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3701,7 +3717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3727,7 +3743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3753,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3779,7 +3795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3805,7 +3821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -3831,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3857,7 +3873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3909,7 +3925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3935,7 +3951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3961,7 +3977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -4013,7 +4029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -4039,7 +4055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4065,7 +4081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -4117,7 +4133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -4143,7 +4159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -4195,7 +4211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -4247,7 +4263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -4273,7 +4289,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -4299,7 +4315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -4325,7 +4341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -4351,7 +4367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -4377,7 +4393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -4403,7 +4419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -4429,7 +4445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -4507,7 +4523,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -4533,7 +4549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -4559,7 +4575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>235</v>
       </c>
@@ -4611,7 +4627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>241</v>
       </c>
@@ -4637,7 +4653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -4663,7 +4679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>252</v>
       </c>
@@ -4689,7 +4705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -4715,7 +4731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -4741,7 +4757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -4767,7 +4783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>275</v>
       </c>
@@ -4793,7 +4809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -4819,7 +4835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>287</v>
       </c>
@@ -4845,7 +4861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>293</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>299</v>
       </c>
@@ -4897,7 +4913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>304</v>
       </c>
@@ -4923,7 +4939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>310</v>
       </c>
@@ -4949,7 +4965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>315</v>
       </c>
@@ -4975,7 +4991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>320</v>
       </c>
@@ -5001,7 +5017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>326</v>
       </c>
@@ -5027,7 +5043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>331</v>
       </c>
@@ -5053,7 +5069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>337</v>
       </c>
@@ -5079,7 +5095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>343</v>
       </c>
@@ -5105,7 +5121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -5131,7 +5147,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -5183,7 +5199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -5209,7 +5225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>371</v>
       </c>
@@ -5235,7 +5251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>376</v>
       </c>
@@ -5261,7 +5277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>382</v>
       </c>
@@ -5287,7 +5303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>388</v>
       </c>
@@ -5313,7 +5329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>394</v>
       </c>
@@ -5339,7 +5355,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>400</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>406</v>
       </c>
@@ -5391,7 +5407,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>412</v>
       </c>
@@ -5417,7 +5433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>417</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>423</v>
       </c>
@@ -5469,7 +5485,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>429</v>
       </c>
@@ -5495,7 +5511,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>435</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>441</v>
       </c>
@@ -5547,7 +5563,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>447</v>
       </c>
@@ -5573,7 +5589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>453</v>
       </c>
@@ -5599,7 +5615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>459</v>
       </c>
@@ -5625,7 +5641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>465</v>
       </c>
@@ -5651,7 +5667,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>471</v>
       </c>
@@ -5677,7 +5693,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>477</v>
       </c>
@@ -5703,7 +5719,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>483</v>
       </c>
@@ -5729,7 +5745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>489</v>
       </c>
@@ -5755,7 +5771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>495</v>
       </c>
@@ -5781,7 +5797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>500</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>506</v>
       </c>
@@ -5833,7 +5849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>512</v>
       </c>
@@ -5859,7 +5875,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>518</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>523</v>
       </c>
@@ -5911,7 +5927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>529</v>
       </c>
@@ -5937,7 +5953,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>535</v>
       </c>
@@ -5963,7 +5979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>541</v>
       </c>
@@ -5989,7 +6005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>547</v>
       </c>
@@ -6015,7 +6031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>553</v>
       </c>
@@ -6041,7 +6057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>559</v>
       </c>
@@ -6067,7 +6083,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>564</v>
       </c>
@@ -6093,7 +6109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>570</v>
       </c>
@@ -6119,7 +6135,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>576</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -6171,7 +6187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>588</v>
       </c>
@@ -6197,7 +6213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>594</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>600</v>
       </c>
@@ -6249,7 +6265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>606</v>
       </c>
@@ -6275,7 +6291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>611</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>617</v>
       </c>
@@ -6327,7 +6343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>623</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>629</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>635</v>
       </c>
@@ -6405,7 +6421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>640</v>
       </c>
@@ -6431,7 +6447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>646</v>
       </c>
@@ -6457,7 +6473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>649</v>
       </c>
@@ -6483,7 +6499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>654</v>
       </c>
@@ -6509,7 +6525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>660</v>
       </c>
@@ -6535,7 +6551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>663</v>
       </c>
@@ -6561,7 +6577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>669</v>
       </c>
@@ -6587,7 +6603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>672</v>
       </c>
@@ -6613,7 +6629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>678</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>684</v>
       </c>
@@ -6665,7 +6681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>689</v>
       </c>
@@ -6691,7 +6707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>694</v>
       </c>
@@ -6717,7 +6733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>700</v>
       </c>
@@ -6743,7 +6759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>706</v>
       </c>
@@ -6769,7 +6785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>711</v>
       </c>
@@ -6795,7 +6811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>716</v>
       </c>
@@ -6821,7 +6837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>721</v>
       </c>
@@ -6847,7 +6863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>727</v>
       </c>
@@ -6873,7 +6889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>733</v>
       </c>
@@ -6899,7 +6915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>739</v>
       </c>
@@ -6925,7 +6941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>744</v>
       </c>
@@ -6951,7 +6967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>750</v>
       </c>
@@ -6977,7 +6993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>756</v>
       </c>
@@ -7003,7 +7019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>762</v>
       </c>
@@ -7029,7 +7045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>767</v>
       </c>
@@ -7055,7 +7071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>772</v>
       </c>
@@ -7081,7 +7097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>777</v>
       </c>
@@ -7107,7 +7123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>782</v>
       </c>
@@ -7133,7 +7149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>787</v>
       </c>
@@ -7159,7 +7175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>793</v>
       </c>
@@ -7185,7 +7201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>799</v>
       </c>
@@ -7211,7 +7227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>804</v>
       </c>
@@ -7237,7 +7253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>810</v>
       </c>
@@ -7263,7 +7279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>816</v>
       </c>
@@ -7289,7 +7305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>821</v>
       </c>
@@ -7315,7 +7331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>826</v>
       </c>
@@ -7341,7 +7357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>831</v>
       </c>
@@ -7367,7 +7383,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>837</v>
       </c>
@@ -7393,7 +7409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>840</v>
       </c>
@@ -7419,7 +7435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>845</v>
       </c>
@@ -7445,7 +7461,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>851</v>
       </c>
@@ -7471,7 +7487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>856</v>
       </c>
@@ -7497,7 +7513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>862</v>
       </c>
@@ -7523,7 +7539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>868</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>874</v>
       </c>
@@ -7575,7 +7591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>879</v>
       </c>
@@ -7601,7 +7617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>883</v>
       </c>
@@ -7627,7 +7643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>888</v>
       </c>
@@ -7653,7 +7669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>894</v>
       </c>
@@ -7679,7 +7695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>900</v>
       </c>
@@ -7705,7 +7721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>906</v>
       </c>
@@ -7731,7 +7747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>911</v>
       </c>
@@ -7757,7 +7773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>916</v>
       </c>
@@ -7783,7 +7799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>921</v>
       </c>
@@ -7809,7 +7825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>926</v>
       </c>
@@ -7835,7 +7851,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>931</v>
       </c>
@@ -7861,7 +7877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>936</v>
       </c>
@@ -7887,7 +7903,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>941</v>
       </c>
@@ -7913,7 +7929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>947</v>
       </c>
@@ -7939,7 +7955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>953</v>
       </c>
@@ -7965,7 +7981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>959</v>
       </c>
@@ -7991,7 +8007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>965</v>
       </c>
@@ -8017,7 +8033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>970</v>
       </c>
@@ -8043,7 +8059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>975</v>
       </c>
@@ -8069,7 +8085,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>981</v>
       </c>
@@ -8095,7 +8111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>987</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>991</v>
       </c>
@@ -8147,7 +8163,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>997</v>
       </c>
@@ -8173,7 +8189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1002</v>
       </c>
@@ -8199,7 +8215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1007</v>
       </c>
@@ -8225,7 +8241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1012</v>
       </c>
@@ -8251,7 +8267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1018</v>
       </c>
@@ -8277,7 +8293,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1024</v>
       </c>
@@ -8303,7 +8319,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1030</v>
       </c>
@@ -8329,7 +8345,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1036</v>
       </c>
@@ -8355,7 +8371,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1041</v>
       </c>
@@ -8381,7 +8397,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1046</v>
       </c>
@@ -8407,7 +8423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1049</v>
       </c>
@@ -8433,7 +8449,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1054</v>
       </c>
@@ -8459,7 +8475,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1059</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1065</v>
       </c>
@@ -8511,7 +8527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1071</v>
       </c>
@@ -8538,6 +8554,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>